--- a/11-CollaborationList/Manchester.xlsx
+++ b/11-CollaborationList/Manchester.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7580C4D0-0B21-C846-952C-6AD5094FB9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E197A7-0B53-CB40-BA82-6024D1762740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Title</t>
   </si>
@@ -125,6 +125,54 @@
   </si>
   <si>
     <t>Manchester-BioMed</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Bertsche</t>
+  </si>
+  <si>
+    <t>W.</t>
+  </si>
+  <si>
+    <t>william.bertsche@manchester.ac.uk</t>
+  </si>
+  <si>
+    <t>W. Bertsche</t>
+  </si>
+  <si>
+    <t>CI-Manchester</t>
+  </si>
+  <si>
+    <t>Department of Physics and Astronomy, The University of Manchester, Oxford Rd, Manchester, M13 9PL, UK</t>
+  </si>
+  <si>
+    <t>CI-DL</t>
+  </si>
+  <si>
+    <t>Cockcroft Institute, Daresbury Laboratory, Sci-Tech Daresbury, Keckwick Ln, Daresbury, Warrington UK</t>
+  </si>
+  <si>
+    <t>0000-0002-6565-9282</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Boogert</t>
+  </si>
+  <si>
+    <t>S.</t>
+  </si>
+  <si>
+    <t>Stewart.Boogert@rhul.ac.uk</t>
+  </si>
+  <si>
+    <t>S. Boogert</t>
+  </si>
+  <si>
+    <t>08Oct24: move to CI</t>
   </si>
 </sst>
 </file>
@@ -669,8 +717,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}" name="Table1" displayName="Table1" ref="A1:P3" totalsRowShown="0">
-  <autoFilter ref="A1:P3" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}" name="Table1" displayName="Table1" ref="A1:P5" totalsRowShown="0">
+  <autoFilter ref="A1:P5" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{FD39909D-050E-1147-B84A-EAE5260274A2}" name="Title"/>
     <tableColumn id="2" xr3:uid="{7A9B98C2-9D8E-EC40-86C1-C916EC7E033F}" name="Name"/>
@@ -1010,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E36F7E-01C1-C645-A567-F4934604AE01}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1156,6 +1204,85 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/11-CollaborationList/Manchester.xlsx
+++ b/11-CollaborationList/Manchester.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E197A7-0B53-CB40-BA82-6024D1762740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6767A786-DB97-1C4B-A475-AFB04D165C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Title</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Karen J Kirkby</t>
   </si>
   <si>
-    <t>Division of Cancer Sciences, Faculty of Biology, Medicine and Health, The University of Manchester, The Christie Proton Therapy Centre, \\ \&gt; The Cristie NHS Foundation Trust, Wimslow Rd, Manchester M20 4BX</t>
-  </si>
-  <si>
     <t>Chrst-NHS</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>CI-DL</t>
   </si>
   <si>
-    <t>Cockcroft Institute, Daresbury Laboratory, Sci-Tech Daresbury, Keckwick Ln, Daresbury, Warrington UK</t>
-  </si>
-  <si>
     <t>0000-0002-6565-9282</t>
   </si>
   <si>
@@ -173,6 +167,9 @@
   </si>
   <si>
     <t>08Oct24: move to CI</t>
+  </si>
+  <si>
+    <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1058,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1070,13 +1067,13 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="89.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="169.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="71.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -1154,25 +1151,25 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1180,25 +1177,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1209,37 +1206,37 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
         <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1247,40 +1244,40 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
       <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/Manchester.xlsx
+++ b/11-CollaborationList/Manchester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6767A786-DB97-1C4B-A475-AFB04D165C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304626E4-BAF7-4D40-A235-53265752A085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>M. Merchant</t>
   </si>
   <si>
-    <t>Division of Cancer Sciences, Faculty of Biology, Medicine and Health, The University of Manchester, The Christie Proton Therapy Centre, The Cristie NHS Foundation Trust, Wimslow Rd, Manchester M20 4BX</t>
-  </si>
-  <si>
     <t>Manchester-BioMed</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
+  </si>
+  <si>
+    <t>Division of Cancer Sciences, Faculty of Biology, Medicine and Health, The University of Manchester, The Christie Proton Therapy Centre, The Cristie NHS Foundation Trust, Wimslow Rd, Manchester, M20 4BX, UK</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E36F7E-01C1-C645-A567-F4934604AE01}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,10 +1151,10 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1192,10 +1192,10 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1206,37 +1206,37 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
         <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1244,40 +1244,40 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
